--- a/Data_Integration/Buc-ee's Sales Import-Sid_original.xlsx
+++ b/Data_Integration/Buc-ee's Sales Import-Sid_original.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Daily\8_10\_N\client_explanation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Daily\8_10\_N\OMS_Data_engineering\Data_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAB7DB-40F4-4F22-921D-079F7020331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="3645" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="documentDownloads20230807_2040_" sheetId="1" r:id="rId1"/>
@@ -17,20 +18,7 @@
     <sheet name="UOM" sheetId="5" r:id="rId3"/>
     <sheet name="SalesImport" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1513,7 +1501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1682,7 +1670,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1871,6 +1859,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2152,8 +2146,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2215,9 +2211,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2255,9 +2251,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2292,7 +2288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2327,7 +2323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2500,24 +2496,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DQ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2525,7 +2521,7 @@
     <col min="14" max="14" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
@@ -2533,15 +2529,20 @@
     <col min="22" max="28" width="9" style="1"/>
     <col min="29" max="29" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="36" width="9" style="1"/>
-    <col min="37" max="37" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="9" style="1"/>
     <col min="41" max="41" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="67" width="9" style="1"/>
+    <col min="43" max="43" width="9" style="1"/>
+    <col min="44" max="44" width="9" style="12"/>
+    <col min="45" max="46" width="9" style="1"/>
+    <col min="47" max="50" width="9" style="12"/>
+    <col min="51" max="67" width="9" style="1"/>
     <col min="68" max="68" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="69" max="96" width="9" style="1"/>
-    <col min="97" max="97" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="100" width="9" style="1"/>
+    <col min="97" max="97" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9" style="12"/>
+    <col min="99" max="100" width="9" style="1"/>
     <col min="101" max="101" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="102" max="103" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2564,7 +2565,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -2573,16 +2574,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2606,7 +2607,7 @@
       <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="13" t="s">
@@ -2666,7 +2667,7 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -2687,7 +2688,7 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
@@ -2696,16 +2697,16 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
@@ -2846,10 +2847,10 @@
       <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="12" t="s">
         <v>97</v>
       </c>
       <c r="CU1" s="1" t="s">
@@ -2926,7 +2927,7 @@
       <c r="A2" s="10">
         <v>1723080057</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2935,10 +2936,10 @@
       <c r="E2" s="10">
         <v>1723080057</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L2" s="1">
@@ -2953,13 +2954,13 @@
       <c r="AF2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="13">
         <v>3833</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS2" s="1" t="s">
@@ -2989,7 +2990,7 @@
       <c r="CA2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CS2" s="13">
         <v>234</v>
       </c>
     </row>
@@ -3012,7 +3013,7 @@
       <c r="P3" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="13">
         <v>156423</v>
       </c>
       <c r="R3" s="13">
@@ -3047,7 +3048,7 @@
       <c r="P4" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="13">
         <v>156420</v>
       </c>
       <c r="R4" s="13">
@@ -3082,7 +3083,7 @@
       <c r="P5" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="13">
         <v>156424</v>
       </c>
       <c r="R5" s="13">
@@ -3117,7 +3118,7 @@
       <c r="P6" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="13">
         <v>156419</v>
       </c>
       <c r="R6" s="13">
@@ -3137,7 +3138,7 @@
       <c r="A7" s="1">
         <v>2223080094</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -3146,10 +3147,10 @@
       <c r="E7" s="1">
         <v>2223080094</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L7" s="1">
@@ -3164,13 +3165,13 @@
       <c r="AF7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="13">
         <v>3833</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AR7" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS7" s="1" t="s">
@@ -3200,7 +3201,7 @@
       <c r="CA7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS7" s="1">
+      <c r="CS7" s="13">
         <v>468</v>
       </c>
     </row>
@@ -3223,7 +3224,7 @@
       <c r="P8" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="13">
         <v>156421</v>
       </c>
       <c r="R8" s="13">
@@ -3258,7 +3259,7 @@
       <c r="P9" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="13">
         <v>156423</v>
       </c>
       <c r="R9" s="13">
@@ -3293,7 +3294,7 @@
       <c r="P10" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="13">
         <v>156420</v>
       </c>
       <c r="R10" s="13">
@@ -3328,7 +3329,7 @@
       <c r="P11" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="13">
         <v>156424</v>
       </c>
       <c r="R11" s="13">
@@ -3363,7 +3364,7 @@
       <c r="P12" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="13">
         <v>156419</v>
       </c>
       <c r="R12" s="13">
@@ -3383,7 +3384,7 @@
       <c r="A13" s="1">
         <v>2623080058</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3392,10 +3393,10 @@
       <c r="E13" s="1">
         <v>2623080058</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L13" s="1">
@@ -3410,13 +3411,13 @@
       <c r="AF13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="13">
         <v>3833</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AR13" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS13" s="1" t="s">
@@ -3446,7 +3447,7 @@
       <c r="CA13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS13" s="1">
+      <c r="CS13" s="13">
         <v>280.8</v>
       </c>
     </row>
@@ -3469,7 +3470,7 @@
       <c r="P14" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="13">
         <v>156420</v>
       </c>
       <c r="R14" s="13">
@@ -3504,7 +3505,7 @@
       <c r="P15" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="13">
         <v>156424</v>
       </c>
       <c r="R15" s="13">
@@ -3539,7 +3540,7 @@
       <c r="P16" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="13">
         <v>156419</v>
       </c>
       <c r="R16" s="13">
@@ -3559,7 +3560,7 @@
       <c r="A17" s="1">
         <v>3023080047</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3568,10 +3569,10 @@
       <c r="E17" s="1">
         <v>3023080047</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L17" s="1">
@@ -3586,13 +3587,13 @@
       <c r="AF17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="13">
         <v>3833</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AR17" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS17" s="1" t="s">
@@ -3622,7 +3623,7 @@
       <c r="CA17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS17" s="1">
+      <c r="CS17" s="13">
         <v>514.79999999999995</v>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
       <c r="P18" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="13">
         <v>156421</v>
       </c>
       <c r="R18" s="13">
@@ -3680,7 +3681,7 @@
       <c r="P19" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="13">
         <v>156423</v>
       </c>
       <c r="R19" s="13">
@@ -3715,7 +3716,7 @@
       <c r="P20" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="13">
         <v>156420</v>
       </c>
       <c r="R20" s="13">
@@ -3750,7 +3751,7 @@
       <c r="P21" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="13">
         <v>156424</v>
       </c>
       <c r="R21" s="13">
@@ -3785,7 +3786,7 @@
       <c r="P22" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="13">
         <v>156419</v>
       </c>
       <c r="R22" s="13">
@@ -3805,7 +3806,7 @@
       <c r="A23" s="1">
         <v>3423080079</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -3814,10 +3815,10 @@
       <c r="E23" s="1">
         <v>3423080079</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L23" s="1">
@@ -3832,13 +3833,13 @@
       <c r="AF23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="13">
         <v>3833</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS23" s="1" t="s">
@@ -3868,7 +3869,7 @@
       <c r="CA23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS23" s="1">
+      <c r="CS23" s="13">
         <v>140.4</v>
       </c>
     </row>
@@ -3891,7 +3892,7 @@
       <c r="P24" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="13">
         <v>156420</v>
       </c>
       <c r="R24" s="13">
@@ -3926,7 +3927,7 @@
       <c r="P25" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="13">
         <v>156424</v>
       </c>
       <c r="R25" s="13">
@@ -3946,7 +3947,7 @@
       <c r="A26" s="1">
         <v>3523080090</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -3955,10 +3956,10 @@
       <c r="E26" s="1">
         <v>3523080090</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L26" s="1">
@@ -3973,13 +3974,13 @@
       <c r="AF26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="13">
         <v>3833</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR26" s="1" t="s">
+      <c r="AR26" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS26" s="1" t="s">
@@ -4009,7 +4010,7 @@
       <c r="CA26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS26" s="1">
+      <c r="CS26" s="13">
         <v>327.60000000000002</v>
       </c>
     </row>
@@ -4032,7 +4033,7 @@
       <c r="P27" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="13">
         <v>156423</v>
       </c>
       <c r="R27" s="13">
@@ -4067,7 +4068,7 @@
       <c r="P28" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="13">
         <v>156420</v>
       </c>
       <c r="R28" s="13">
@@ -4102,7 +4103,7 @@
       <c r="P29" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="13">
         <v>156424</v>
       </c>
       <c r="R29" s="13">
@@ -4137,7 +4138,7 @@
       <c r="P30" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="13">
         <v>156419</v>
       </c>
       <c r="R30" s="13">
@@ -4157,7 +4158,7 @@
       <c r="A31" s="1">
         <v>3623080077</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -4166,10 +4167,10 @@
       <c r="E31" s="1">
         <v>3623080077</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L31" s="1">
@@ -4184,13 +4185,13 @@
       <c r="AF31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="13">
         <v>3833</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="AR31" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS31" s="1" t="s">
@@ -4220,7 +4221,7 @@
       <c r="CA31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS31" s="1">
+      <c r="CS31" s="13">
         <v>46.8</v>
       </c>
     </row>
@@ -4243,7 +4244,7 @@
       <c r="P32" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="13">
         <v>156423</v>
       </c>
       <c r="R32" s="13">
@@ -4263,7 +4264,7 @@
       <c r="A33" s="1">
         <v>3723080080</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -4272,10 +4273,10 @@
       <c r="E33" s="1">
         <v>3723080080</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="1">
@@ -4290,13 +4291,13 @@
       <c r="AF33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK33" s="13">
         <v>3833</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR33" s="1" t="s">
+      <c r="AR33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS33" s="1" t="s">
@@ -4326,7 +4327,7 @@
       <c r="CA33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS33" s="1">
+      <c r="CS33" s="13">
         <v>514.79999999999995</v>
       </c>
     </row>
@@ -4349,7 +4350,7 @@
       <c r="P34" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="13">
         <v>156421</v>
       </c>
       <c r="R34" s="13">
@@ -4384,7 +4385,7 @@
       <c r="P35" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="13">
         <v>156423</v>
       </c>
       <c r="R35" s="13">
@@ -4419,7 +4420,7 @@
       <c r="P36" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="13">
         <v>156420</v>
       </c>
       <c r="R36" s="13">
@@ -4454,7 +4455,7 @@
       <c r="P37" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="13">
         <v>156424</v>
       </c>
       <c r="R37" s="13">
@@ -4489,7 +4490,7 @@
       <c r="P38" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="13">
         <v>156419</v>
       </c>
       <c r="R38" s="13">
@@ -4509,7 +4510,7 @@
       <c r="A39" s="1">
         <v>3823080080</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -4518,10 +4519,10 @@
       <c r="E39" s="1">
         <v>3823080080</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L39" s="1">
@@ -4536,13 +4537,13 @@
       <c r="AF39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AK39" s="13">
         <v>3833</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR39" s="1" t="s">
+      <c r="AR39" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS39" s="1" t="s">
@@ -4572,7 +4573,7 @@
       <c r="CA39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS39" s="1">
+      <c r="CS39" s="13">
         <v>187.2</v>
       </c>
     </row>
@@ -4595,7 +4596,7 @@
       <c r="P40" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="13">
         <v>156423</v>
       </c>
       <c r="R40" s="13">
@@ -4630,7 +4631,7 @@
       <c r="P41" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="13">
         <v>156420</v>
       </c>
       <c r="R41" s="13">
@@ -4665,7 +4666,7 @@
       <c r="P42" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="13">
         <v>156419</v>
       </c>
       <c r="R42" s="13">
@@ -4685,7 +4686,7 @@
       <c r="A43" s="1">
         <v>3923080083</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -4694,10 +4695,10 @@
       <c r="E43" s="1">
         <v>3923080083</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L43" s="1">
@@ -4712,13 +4713,13 @@
       <c r="AF43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AK43" s="13">
         <v>3833</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR43" s="1" t="s">
+      <c r="AR43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS43" s="1" t="s">
@@ -4748,7 +4749,7 @@
       <c r="CA43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS43" s="1">
+      <c r="CS43" s="13">
         <v>374.4</v>
       </c>
     </row>
@@ -4771,7 +4772,7 @@
       <c r="P44" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="13">
         <v>156422</v>
       </c>
       <c r="R44" s="13">
@@ -4806,7 +4807,7 @@
       <c r="P45" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="13">
         <v>156421</v>
       </c>
       <c r="R45" s="13">
@@ -4841,7 +4842,7 @@
       <c r="P46" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="13">
         <v>156423</v>
       </c>
       <c r="R46" s="13">
@@ -4876,7 +4877,7 @@
       <c r="P47" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="13">
         <v>156420</v>
       </c>
       <c r="R47" s="13">
@@ -4911,7 +4912,7 @@
       <c r="P48" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="13">
         <v>156424</v>
       </c>
       <c r="R48" s="13">
@@ -4931,7 +4932,7 @@
       <c r="A49" s="1">
         <v>4023080080</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -4940,10 +4941,10 @@
       <c r="E49" s="1">
         <v>4023080080</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L49" s="1">
@@ -4958,13 +4959,13 @@
       <c r="AF49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AK49" s="13">
         <v>3833</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR49" s="1" t="s">
+      <c r="AR49" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS49" s="1" t="s">
@@ -4994,7 +4995,7 @@
       <c r="CA49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS49" s="1">
+      <c r="CS49" s="13">
         <v>280.8</v>
       </c>
     </row>
@@ -5017,7 +5018,7 @@
       <c r="P50" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="13">
         <v>156421</v>
       </c>
       <c r="R50" s="13">
@@ -5052,7 +5053,7 @@
       <c r="P51" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="13">
         <v>156423</v>
       </c>
       <c r="R51" s="13">
@@ -5087,7 +5088,7 @@
       <c r="P52" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="13">
         <v>156420</v>
       </c>
       <c r="R52" s="13">
@@ -5122,7 +5123,7 @@
       <c r="P53" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="13">
         <v>156424</v>
       </c>
       <c r="R53" s="13">
@@ -5157,7 +5158,7 @@
       <c r="P54" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="13">
         <v>156419</v>
       </c>
       <c r="R54" s="13">
@@ -5177,7 +5178,7 @@
       <c r="A55" s="1">
         <v>4223080101</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -5186,10 +5187,10 @@
       <c r="E55" s="1">
         <v>4223080101</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L55" s="1">
@@ -5204,13 +5205,13 @@
       <c r="AF55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55" s="13">
         <v>3833</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR55" s="1" t="s">
+      <c r="AR55" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS55" s="1" t="s">
@@ -5240,7 +5241,7 @@
       <c r="CA55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CS55" s="1">
+      <c r="CS55" s="13">
         <v>795.6</v>
       </c>
     </row>
@@ -5263,7 +5264,7 @@
       <c r="P56" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="13">
         <v>156421</v>
       </c>
       <c r="R56" s="13">
@@ -5298,7 +5299,7 @@
       <c r="P57" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="13">
         <v>156423</v>
       </c>
       <c r="R57" s="13">
@@ -5333,7 +5334,7 @@
       <c r="P58" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="13">
         <v>156420</v>
       </c>
       <c r="R58" s="13">
@@ -5368,7 +5369,7 @@
       <c r="P59" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="13">
         <v>156424</v>
       </c>
       <c r="R59" s="13">
@@ -5388,7 +5389,7 @@
       <c r="A60" s="1">
         <v>4323080085</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -5397,10 +5398,10 @@
       <c r="E60" s="1">
         <v>4323080085</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L60" s="1">
@@ -5415,13 +5416,13 @@
       <c r="AF60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AK60" s="13">
         <v>3833</v>
       </c>
       <c r="AP60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR60" s="1" t="s">
+      <c r="AR60" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS60" s="1" t="s">
@@ -5451,7 +5452,7 @@
       <c r="CA60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS60" s="1">
+      <c r="CS60" s="13">
         <v>187.2</v>
       </c>
     </row>
@@ -5474,7 +5475,7 @@
       <c r="P61" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="13">
         <v>156423</v>
       </c>
       <c r="R61" s="13">
@@ -5509,7 +5510,7 @@
       <c r="P62" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="13">
         <v>156420</v>
       </c>
       <c r="R62" s="13">
@@ -5544,7 +5545,7 @@
       <c r="P63" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="13">
         <v>156424</v>
       </c>
       <c r="R63" s="13">
@@ -5564,7 +5565,7 @@
       <c r="A64" s="1">
         <v>4423080078</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -5573,10 +5574,10 @@
       <c r="E64" s="1">
         <v>4423080078</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L64" s="1">
@@ -5591,13 +5592,13 @@
       <c r="AF64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK64" s="1">
+      <c r="AK64" s="13">
         <v>3833</v>
       </c>
       <c r="AP64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR64" s="1" t="s">
+      <c r="AR64" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS64" s="1" t="s">
@@ -5627,7 +5628,7 @@
       <c r="CA64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS64" s="1">
+      <c r="CS64" s="13">
         <v>93.6</v>
       </c>
     </row>
@@ -5650,7 +5651,7 @@
       <c r="P65" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="13">
         <v>156423</v>
       </c>
       <c r="R65" s="13">
@@ -5685,7 +5686,7 @@
       <c r="P66" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="13">
         <v>156420</v>
       </c>
       <c r="R66" s="13">
@@ -5705,7 +5706,7 @@
       <c r="A67" s="1">
         <v>4523080099</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -5714,10 +5715,10 @@
       <c r="E67" s="1">
         <v>4523080099</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L67" s="1">
@@ -5732,13 +5733,13 @@
       <c r="AF67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AK67" s="13">
         <v>3833</v>
       </c>
       <c r="AP67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR67" s="1" t="s">
+      <c r="AR67" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS67" s="1" t="s">
@@ -5768,7 +5769,7 @@
       <c r="CA67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CS67" s="1">
+      <c r="CS67" s="13">
         <v>374.4</v>
       </c>
     </row>
@@ -5791,7 +5792,7 @@
       <c r="P68" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68" s="13">
         <v>156421</v>
       </c>
       <c r="R68" s="13">
@@ -5826,7 +5827,7 @@
       <c r="P69" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="13">
         <v>156420</v>
       </c>
       <c r="R69" s="13">
@@ -5861,7 +5862,7 @@
       <c r="P70" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70" s="13">
         <v>156424</v>
       </c>
       <c r="R70" s="13">
@@ -5881,7 +5882,7 @@
       <c r="A71" s="1">
         <v>4623080084</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -5890,10 +5891,10 @@
       <c r="E71" s="1">
         <v>4623080084</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L71" s="1">
@@ -5908,13 +5909,13 @@
       <c r="AF71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK71" s="1">
+      <c r="AK71" s="13">
         <v>3833</v>
       </c>
       <c r="AP71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR71" s="1" t="s">
+      <c r="AR71" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS71" s="1" t="s">
@@ -5944,7 +5945,7 @@
       <c r="CA71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS71" s="1">
+      <c r="CS71" s="13">
         <v>140.4</v>
       </c>
     </row>
@@ -5967,7 +5968,7 @@
       <c r="P72" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="13">
         <v>156423</v>
       </c>
       <c r="R72" s="13">
@@ -6002,7 +6003,7 @@
       <c r="P73" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="13">
         <v>156424</v>
       </c>
       <c r="R73" s="13">
@@ -6022,7 +6023,7 @@
       <c r="A74" s="1">
         <v>4723080090</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -6031,10 +6032,10 @@
       <c r="E74" s="1">
         <v>4723080090</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L74" s="1">
@@ -6049,13 +6050,13 @@
       <c r="AF74" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK74" s="1">
+      <c r="AK74" s="13">
         <v>3833</v>
       </c>
       <c r="AP74" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR74" s="1" t="s">
+      <c r="AR74" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS74" s="1" t="s">
@@ -6085,7 +6086,7 @@
       <c r="CA74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS74" s="1">
+      <c r="CS74" s="13">
         <v>234</v>
       </c>
     </row>
@@ -6108,7 +6109,7 @@
       <c r="P75" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="13">
         <v>156422</v>
       </c>
       <c r="R75" s="13">
@@ -6143,7 +6144,7 @@
       <c r="P76" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="13">
         <v>156420</v>
       </c>
       <c r="R76" s="13">
@@ -6178,7 +6179,7 @@
       <c r="P77" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="13">
         <v>156424</v>
       </c>
       <c r="R77" s="13">
@@ -6213,7 +6214,7 @@
       <c r="P78" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78" s="13">
         <v>156419</v>
       </c>
       <c r="R78" s="13">
@@ -6233,7 +6234,7 @@
       <c r="A79" s="1">
         <v>4823080067</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -6242,10 +6243,10 @@
       <c r="E79" s="1">
         <v>4823080067</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L79" s="1">
@@ -6260,13 +6261,13 @@
       <c r="AF79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK79" s="1">
+      <c r="AK79" s="13">
         <v>3833</v>
       </c>
       <c r="AP79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR79" s="1" t="s">
+      <c r="AR79" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS79" s="1" t="s">
@@ -6296,7 +6297,7 @@
       <c r="CA79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CS79" s="1">
+      <c r="CS79" s="13">
         <v>46.8</v>
       </c>
     </row>
@@ -6319,7 +6320,7 @@
       <c r="P80" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80" s="13">
         <v>156419</v>
       </c>
       <c r="R80" s="13">
@@ -6339,7 +6340,7 @@
       <c r="A81" s="1">
         <v>5023080089</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D81" s="13" t="s">
@@ -6348,10 +6349,10 @@
       <c r="E81" s="1">
         <v>5023080089</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L81" s="1">
@@ -6366,13 +6367,13 @@
       <c r="AF81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK81" s="1">
+      <c r="AK81" s="13">
         <v>3833</v>
       </c>
       <c r="AP81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR81" s="1" t="s">
+      <c r="AR81" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS81" s="1" t="s">
@@ -6402,7 +6403,7 @@
       <c r="CA81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CS81" s="1">
+      <c r="CS81" s="13">
         <v>468</v>
       </c>
     </row>
@@ -6425,7 +6426,7 @@
       <c r="P82" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82" s="13">
         <v>156423</v>
       </c>
       <c r="R82" s="13">
@@ -6460,7 +6461,7 @@
       <c r="P83" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83" s="13">
         <v>156420</v>
       </c>
       <c r="R83" s="13">
@@ -6495,7 +6496,7 @@
       <c r="P84" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84" s="13">
         <v>156424</v>
       </c>
       <c r="R84" s="13">
@@ -6530,7 +6531,7 @@
       <c r="P85" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85" s="13">
         <v>156419</v>
       </c>
       <c r="R85" s="13">
@@ -6550,7 +6551,7 @@
       <c r="A86" s="1">
         <v>5123080087</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="13" t="s">
@@ -6559,10 +6560,10 @@
       <c r="E86" s="1">
         <v>5123080087</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L86" s="1">
@@ -6577,13 +6578,13 @@
       <c r="AF86" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK86" s="1">
+      <c r="AK86" s="13">
         <v>3833</v>
       </c>
       <c r="AP86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR86" s="1" t="s">
+      <c r="AR86" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS86" s="1" t="s">
@@ -6613,7 +6614,7 @@
       <c r="CA86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS86" s="1">
+      <c r="CS86" s="13">
         <v>468</v>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       <c r="P87" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87" s="13">
         <v>156423</v>
       </c>
       <c r="R87" s="13">
@@ -6671,7 +6672,7 @@
       <c r="P88" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88" s="13">
         <v>156420</v>
       </c>
       <c r="R88" s="13">
@@ -6706,7 +6707,7 @@
       <c r="P89" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89" s="13">
         <v>156424</v>
       </c>
       <c r="R89" s="13">
@@ -6726,7 +6727,7 @@
       <c r="A90" s="1">
         <v>5223080096</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -6735,10 +6736,10 @@
       <c r="E90" s="1">
         <v>5223080096</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L90" s="1">
@@ -6753,13 +6754,13 @@
       <c r="AF90" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK90" s="1">
+      <c r="AK90" s="13">
         <v>3833</v>
       </c>
       <c r="AP90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR90" s="1" t="s">
+      <c r="AR90" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS90" s="1" t="s">
@@ -6789,7 +6790,7 @@
       <c r="CA90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS90" s="1">
+      <c r="CS90" s="13">
         <v>327.60000000000002</v>
       </c>
     </row>
@@ -6812,7 +6813,7 @@
       <c r="P91" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91" s="13">
         <v>156422</v>
       </c>
       <c r="R91" s="13">
@@ -6847,7 +6848,7 @@
       <c r="P92" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q92" s="13">
         <v>156421</v>
       </c>
       <c r="R92" s="13">
@@ -6882,7 +6883,7 @@
       <c r="P93" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93" s="13">
         <v>156420</v>
       </c>
       <c r="R93" s="13">
@@ -6917,7 +6918,7 @@
       <c r="P94" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q94" s="13">
         <v>156419</v>
       </c>
       <c r="R94" s="13">
@@ -6937,7 +6938,7 @@
       <c r="A95" s="1">
         <v>5323080092</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D95" s="13" t="s">
@@ -6946,10 +6947,10 @@
       <c r="E95" s="1">
         <v>5323080092</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L95" s="1">
@@ -6964,13 +6965,13 @@
       <c r="AF95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK95" s="1">
+      <c r="AK95" s="13">
         <v>3833</v>
       </c>
       <c r="AP95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR95" s="1" t="s">
+      <c r="AR95" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS95" s="1" t="s">
@@ -7000,7 +7001,7 @@
       <c r="CA95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="CS95" s="1">
+      <c r="CS95" s="13">
         <v>936</v>
       </c>
     </row>
@@ -7023,7 +7024,7 @@
       <c r="P96" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q96" s="13">
         <v>156422</v>
       </c>
       <c r="R96" s="13">
@@ -7058,7 +7059,7 @@
       <c r="P97" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q97" s="13">
         <v>156421</v>
       </c>
       <c r="R97" s="13">
@@ -7093,7 +7094,7 @@
       <c r="P98" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q98" s="13">
         <v>156423</v>
       </c>
       <c r="R98" s="13">
@@ -7128,7 +7129,7 @@
       <c r="P99" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q99" s="13">
         <v>156420</v>
       </c>
       <c r="R99" s="13">
@@ -7163,7 +7164,7 @@
       <c r="P100" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="Q100" s="13">
         <v>156424</v>
       </c>
       <c r="R100" s="13">
@@ -7198,7 +7199,7 @@
       <c r="P101" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q101" s="13">
         <v>156419</v>
       </c>
       <c r="R101" s="13">
@@ -7218,7 +7219,7 @@
       <c r="A102" s="1">
         <v>5523080092</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -7227,10 +7228,10 @@
       <c r="E102" s="1">
         <v>5523080092</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L102" s="1">
@@ -7245,13 +7246,13 @@
       <c r="AF102" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK102" s="1">
+      <c r="AK102" s="13">
         <v>3833</v>
       </c>
       <c r="AP102" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR102" s="1" t="s">
+      <c r="AR102" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS102" s="1" t="s">
@@ -7281,7 +7282,7 @@
       <c r="CA102" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CS102" s="1">
+      <c r="CS102" s="13">
         <v>468</v>
       </c>
     </row>
@@ -7304,7 +7305,7 @@
       <c r="P103" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="Q103" s="13">
         <v>156422</v>
       </c>
       <c r="R103" s="13">
@@ -7339,7 +7340,7 @@
       <c r="P104" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="Q104" s="13">
         <v>156421</v>
       </c>
       <c r="R104" s="13">
@@ -7374,7 +7375,7 @@
       <c r="P105" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="Q105" s="13">
         <v>156423</v>
       </c>
       <c r="R105" s="13">
@@ -7409,7 +7410,7 @@
       <c r="P106" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q106" s="13">
         <v>156420</v>
       </c>
       <c r="R106" s="13">
@@ -7444,7 +7445,7 @@
       <c r="P107" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q107" s="1">
+      <c r="Q107" s="13">
         <v>156419</v>
       </c>
       <c r="R107" s="13">
@@ -7464,7 +7465,7 @@
       <c r="A108" s="1">
         <v>5723080102</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D108" s="13" t="s">
@@ -7473,10 +7474,10 @@
       <c r="E108" s="1">
         <v>5723080102</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L108" s="1">
@@ -7491,13 +7492,13 @@
       <c r="AF108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK108" s="1">
+      <c r="AK108" s="13">
         <v>3833</v>
       </c>
       <c r="AP108" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR108" s="1" t="s">
+      <c r="AR108" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS108" s="1" t="s">
@@ -7527,7 +7528,7 @@
       <c r="CA108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS108" s="1">
+      <c r="CS108" s="13">
         <v>374.4</v>
       </c>
     </row>
@@ -7550,7 +7551,7 @@
       <c r="P109" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q109" s="1">
+      <c r="Q109" s="13">
         <v>156423</v>
       </c>
       <c r="R109" s="13">
@@ -7585,7 +7586,7 @@
       <c r="P110" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q110" s="1">
+      <c r="Q110" s="13">
         <v>156420</v>
       </c>
       <c r="R110" s="13">
@@ -7620,7 +7621,7 @@
       <c r="P111" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q111" s="1">
+      <c r="Q111" s="13">
         <v>156424</v>
       </c>
       <c r="R111" s="13">
@@ -7655,7 +7656,7 @@
       <c r="P112" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q112" s="1">
+      <c r="Q112" s="13">
         <v>156419</v>
       </c>
       <c r="R112" s="13">
@@ -7675,7 +7676,7 @@
       <c r="A113" s="1">
         <v>5823080094</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D113" s="13" t="s">
@@ -7684,10 +7685,10 @@
       <c r="E113" s="1">
         <v>5823080094</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="13" t="s">
         <v>124</v>
       </c>
       <c r="L113" s="1">
@@ -7702,13 +7703,13 @@
       <c r="AF113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK113" s="1">
+      <c r="AK113" s="13">
         <v>3833</v>
       </c>
       <c r="AP113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR113" s="1" t="s">
+      <c r="AR113" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS113" s="1" t="s">
@@ -7738,7 +7739,7 @@
       <c r="CA113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CS113" s="1">
+      <c r="CS113" s="13">
         <v>280.8</v>
       </c>
     </row>
@@ -7761,7 +7762,7 @@
       <c r="P114" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q114" s="1">
+      <c r="Q114" s="13">
         <v>156421</v>
       </c>
       <c r="R114" s="13">
@@ -7796,7 +7797,7 @@
       <c r="P115" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="Q115" s="13">
         <v>156423</v>
       </c>
       <c r="R115" s="13">
@@ -7831,7 +7832,7 @@
       <c r="P116" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q116" s="1">
+      <c r="Q116" s="13">
         <v>156420</v>
       </c>
       <c r="R116" s="13">
@@ -7866,7 +7867,7 @@
       <c r="P117" s="13">
         <v>1.95</v>
       </c>
-      <c r="Q117" s="1">
+      <c r="Q117" s="13">
         <v>156424</v>
       </c>
       <c r="R117" s="13">
@@ -7890,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11119,7 +11120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11140,10 +11141,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -11439,7 +11440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
